--- a/views/financeiro/relatorios/resumo_campanha_69.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_69.xlsx
@@ -822,10 +822,10 @@
         <v>8.4</v>
       </c>
       <c r="H16" s="8">
-        <v>0</v>
+        <v>420.0</v>
       </c>
       <c r="I16" s="8">
-        <v>0.0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -848,10 +848,10 @@
         <v>24.0</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>1200.0</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -900,10 +900,10 @@
         <v>32.4</v>
       </c>
       <c r="H19" s="9">
-        <v>0</v>
+        <v>1620.0</v>
       </c>
       <c r="I19" s="9">
-        <v>0.0</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1066,10 +1066,10 @@
         <v>32.4</v>
       </c>
       <c r="H27" s="8">
-        <v>0</v>
+        <v>1620.0</v>
       </c>
       <c r="I27" s="8">
-        <v>0.0</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1118,10 +1118,10 @@
         <v>153.84</v>
       </c>
       <c r="H29" s="9">
-        <v>6072.0</v>
+        <v>7692.0</v>
       </c>
       <c r="I29" s="9">
-        <v>121.44</v>
+        <v>153.84</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1232,10 +1232,10 @@
         <v>420.0</v>
       </c>
       <c r="E38" s="13">
-        <v>0</v>
+        <v>420.0</v>
       </c>
       <c r="F38" s="12">
-        <v>420.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1249,10 +1249,10 @@
         <v>3670.0</v>
       </c>
       <c r="E39" s="13">
-        <v>2470.0</v>
+        <v>3670.0</v>
       </c>
       <c r="F39" s="12">
-        <v>1200.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="E43" s="9">
         <f>sum(E33:E42)</f>
-        <v>29466.4</v>
+        <v>31086.4</v>
       </c>
       <c r="F43" s="9">
         <f>sum(F33:F42)</f>
-        <v>1620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E44" s="15">
         <f>(E43/D43)</f>
-        <v>0.94788717895929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E45" s="15">
         <f>(F43/D43)</f>
-        <v>0.052112821040712</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
